--- a/data/0. old data/0. raw/2016/companies/pfizer.xlsx
+++ b/data/0. old data/0. raw/2016/companies/pfizer.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1198">
   <si>
     <t>sponsorship</t>
   </si>
@@ -10610,6 +10610,9 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>Brauerstrasse 15</t>
   </si>
 </sst>
 </file>
@@ -11700,9 +11703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -18340,7 +18343,7 @@
         <v>1138</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>517</v>
+        <v>1197</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="33"/>
